--- a/biology/Zoologie/Amarginops/Amarginops.xlsx
+++ b/biology/Zoologie/Amarginops/Amarginops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amarginops est un genre de poissons Siluriformes de la famille des Claroteidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Amarginops a été créé en 1917 par John Treadwell Nichols &amp; Ludlow Griscom avec, pour espèce type Amarginops platus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Amarginops a été créé en 1917 par John Treadwell Nichols &amp; Ludlow Griscom avec, pour espèce type Amarginops platus.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (30 mai 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (30 mai 2021) :
 Amarginops platus Nichols &amp; Griscom, 1917 - espèce type
-Selon ITIS      (30 mai 2021)[3] :
+Selon ITIS      (30 mai 2021) :
 Amarginops ansorgii  (Boulenger, 1910)
 Amarginops bocagii  (Boulenger, 1910)
 Amarginops habereri  (Steindachner, 1912)
@@ -586,7 +602,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) John T. Nichols, Ludlow Griscom, Herbert Lang et James Paul Chapin, « Fresh-water fishes of the Congo Basin obtained by the American Museum Congo Expedition, 1909-1915 », Bulletin of the American Museum of Natural History, New York, Musée américain d'histoire naturelle, vol. 37, no 25,‎ 1917, p. 653-756 (ISSN 0003-0090 et 1937-3546, OCLC 1287364, lire en ligne)</t>
         </is>
